--- a/excel/upgrade.xlsx
+++ b/excel/upgrade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="236">
   <si>
     <t>太空舱ID</t>
   </si>
@@ -36,7 +36,7 @@
     <t>升级消耗数额</t>
   </si>
   <si>
-    <t>游客消费数额</t>
+    <t>盈利数额</t>
   </si>
   <si>
     <t>图片</t>
@@ -45,6 +45,18 @@
     <t>升级限制条件</t>
   </si>
   <si>
+    <t>发电量</t>
+  </si>
+  <si>
+    <t>造水量</t>
+  </si>
+  <si>
+    <t>造氧量</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -66,10 +78,10 @@
     <t>desc</t>
   </si>
   <si>
-    <t>scount</t>
-  </si>
-  <si>
-    <t>xcount</t>
+    <t>scost</t>
+  </si>
+  <si>
+    <t>profit</t>
   </si>
   <si>
     <t>icon</t>
@@ -78,6 +90,18 @@
     <t>level</t>
   </si>
   <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>01001</t>
   </si>
   <si>
@@ -93,114 +117,111 @@
     <t>太空中有地方睡就不错了。</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>010102</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>太空羽绒睡袋</t>
+  </si>
+  <si>
+    <t>比之前软了一点。</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>010103</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>塑料隔板</t>
+  </si>
+  <si>
+    <t>在有用和没用之间徘徊。</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>010104</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>胶囊睡仓</t>
+  </si>
+  <si>
+    <t>带有唤醒服务。</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>010105</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>纯棉两件套</t>
+  </si>
+  <si>
+    <t>服务总算对得起价格了。</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>010106</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>精品四件套</t>
+  </si>
+  <si>
+    <t>物美价廉，超值享受。</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>010201</t>
+  </si>
+  <si>
+    <t>小柜子</t>
+  </si>
+  <si>
+    <t>放不了几样东西的小柜子。</t>
+  </si>
+  <si>
     <t>500</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>010102</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>太空羽绒睡袋</t>
-  </si>
-  <si>
-    <t>比之前软了一点。</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>010103</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>塑料板隔间</t>
-  </si>
-  <si>
-    <t>多了一点隐私。</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>010104</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>隔音仓</t>
-  </si>
-  <si>
-    <t>终于不用带耳塞睡觉了。</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>010105</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>纯棉两件套</t>
-  </si>
-  <si>
-    <t>服务总算对得起价格了。</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>010106</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>精品四件套</t>
-  </si>
-  <si>
-    <t>物美价廉，超值享受。</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>010201</t>
-  </si>
-  <si>
-    <t>小柜子</t>
-  </si>
-  <si>
-    <t>放不了几样东西的小柜子。</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -256,6 +277,453 @@
   </si>
   <si>
     <t>时刻保护游客的财产安全。</t>
+  </si>
+  <si>
+    <t>010301</t>
+  </si>
+  <si>
+    <t>塑料桌子</t>
+  </si>
+  <si>
+    <t>就只是一张桌子。</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>010302</t>
+  </si>
+  <si>
+    <t>塑料凳子</t>
+  </si>
+  <si>
+    <t>可以坐下歇会儿了。</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>010303</t>
+  </si>
+  <si>
+    <t>特种防护涂层</t>
+  </si>
+  <si>
+    <t>有阻燃、抗菌、防霉、耐磨、防腐功能。</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>010304</t>
+  </si>
+  <si>
+    <t>特殊材质桌布</t>
+  </si>
+  <si>
+    <t>简单的一块布也是用特殊材料制成的。</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>010305</t>
+  </si>
+  <si>
+    <t>特制台灯</t>
+  </si>
+  <si>
+    <t>护眼台灯，放心使用。</t>
+  </si>
+  <si>
+    <t>010306</t>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+  </si>
+  <si>
+    <t>不会吧，到太空了还要工作。</t>
+  </si>
+  <si>
+    <t>010401</t>
+  </si>
+  <si>
+    <t>紧急呼叫装置</t>
+  </si>
+  <si>
+    <t>控制中心24小时不停歇待命。</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>010402</t>
+  </si>
+  <si>
+    <t>自动窗帘</t>
+  </si>
+  <si>
+    <t>一天16次日出日落，你一定会需要它。</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>010403</t>
+  </si>
+  <si>
+    <t>毛巾架</t>
+  </si>
+  <si>
+    <t>即使在太空中也要勤刷牙哦。</t>
+  </si>
+  <si>
+    <t>010404</t>
+  </si>
+  <si>
+    <t>仙人掌盆栽</t>
+  </si>
+  <si>
+    <t>太空中难得的一抹绿色。</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>010405</t>
+  </si>
+  <si>
+    <t>感应灯</t>
+  </si>
+  <si>
+    <t>自动调节室内亮度。</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>010406</t>
+  </si>
+  <si>
+    <t>装饰画</t>
+  </si>
+  <si>
+    <t>增添一点生活气息。</t>
+  </si>
+  <si>
+    <t>02001</t>
+  </si>
+  <si>
+    <t>020101</t>
+  </si>
+  <si>
+    <t>1级太阳能电机</t>
+  </si>
+  <si>
+    <t>使用太阳能发电技术。</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>020102</t>
+  </si>
+  <si>
+    <t>2级太阳能电机</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>020103</t>
+  </si>
+  <si>
+    <t>3级太阳能电机</t>
+  </si>
+  <si>
+    <t>020104</t>
+  </si>
+  <si>
+    <t>4级太阳能电机</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>020105</t>
+  </si>
+  <si>
+    <t>5级太阳能电机</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>020201</t>
+  </si>
+  <si>
+    <t>1级电箱</t>
+  </si>
+  <si>
+    <t>为空间站供电。</t>
+  </si>
+  <si>
+    <t>020202</t>
+  </si>
+  <si>
+    <t>2级电箱</t>
+  </si>
+  <si>
+    <t>020203</t>
+  </si>
+  <si>
+    <t>3级电箱</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>020204</t>
+  </si>
+  <si>
+    <t>4级电箱</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>020205</t>
+  </si>
+  <si>
+    <t>5级电箱</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>020301</t>
+  </si>
+  <si>
+    <t>1级造水机</t>
+  </si>
+  <si>
+    <t>氢和氧在催化剂的作用下能生成水。</t>
+  </si>
+  <si>
+    <t>020302</t>
+  </si>
+  <si>
+    <t>2级造水机</t>
+  </si>
+  <si>
+    <t>020303</t>
+  </si>
+  <si>
+    <t>3级造水机</t>
+  </si>
+  <si>
+    <t>020304</t>
+  </si>
+  <si>
+    <t>4级造水机</t>
+  </si>
+  <si>
+    <t>020305</t>
+  </si>
+  <si>
+    <t>5级造水机</t>
+  </si>
+  <si>
+    <t>020401</t>
+  </si>
+  <si>
+    <t>1级水循环机</t>
+  </si>
+  <si>
+    <t>呼出的水汽和尿液收集起来循环利用。</t>
+  </si>
+  <si>
+    <t>020402</t>
+  </si>
+  <si>
+    <t>2级水循环机</t>
+  </si>
+  <si>
+    <t>020403</t>
+  </si>
+  <si>
+    <t>3级水循环机</t>
+  </si>
+  <si>
+    <t>020404</t>
+  </si>
+  <si>
+    <t>4级水循环机</t>
+  </si>
+  <si>
+    <t>020405</t>
+  </si>
+  <si>
+    <t>5级水循环机</t>
+  </si>
+  <si>
+    <t>020501</t>
+  </si>
+  <si>
+    <t>1级氧气生成机</t>
+  </si>
+  <si>
+    <t>电解水能产生氧气和氢气。</t>
+  </si>
+  <si>
+    <t>020502</t>
+  </si>
+  <si>
+    <t>2级氧气生成机</t>
+  </si>
+  <si>
+    <t>020503</t>
+  </si>
+  <si>
+    <t>3级氧气生成机</t>
+  </si>
+  <si>
+    <t>020504</t>
+  </si>
+  <si>
+    <t>4级氧气生成机</t>
+  </si>
+  <si>
+    <t>020505</t>
+  </si>
+  <si>
+    <t>5级氧气生成机</t>
+  </si>
+  <si>
+    <t>020601</t>
+  </si>
+  <si>
+    <t>1级氧气循环机</t>
+  </si>
+  <si>
+    <t>通过光合作用植物能够产生氧气。</t>
+  </si>
+  <si>
+    <t>020602</t>
+  </si>
+  <si>
+    <t>2级氧气循环机</t>
+  </si>
+  <si>
+    <t>020603</t>
+  </si>
+  <si>
+    <t>3级氧气循环机</t>
+  </si>
+  <si>
+    <t>020604</t>
+  </si>
+  <si>
+    <t>4级氧气循环机</t>
+  </si>
+  <si>
+    <t>020605</t>
+  </si>
+  <si>
+    <t>5级氧气循环机</t>
+  </si>
+  <si>
+    <t>03001</t>
+  </si>
+  <si>
+    <t>030101</t>
+  </si>
+  <si>
+    <t>太空马桶</t>
+  </si>
+  <si>
+    <t>价值一个亿的马桶。</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>030201</t>
+  </si>
+  <si>
+    <t>价值一个亿的马桶</t>
+  </si>
+  <si>
+    <t>030301</t>
+  </si>
+  <si>
+    <t>030401</t>
+  </si>
+  <si>
+    <t>价值一个亿的马桶+1。</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>030501</t>
+  </si>
+  <si>
+    <t>太空洗漱台</t>
+  </si>
+  <si>
+    <t>不要挤不要挤。</t>
+  </si>
+  <si>
+    <t>030601</t>
+  </si>
+  <si>
+    <t>有两个位置了。</t>
+  </si>
+  <si>
+    <t>030701</t>
+  </si>
+  <si>
+    <t>有三个位置了。</t>
+  </si>
+  <si>
+    <t>030801</t>
+  </si>
+  <si>
+    <t>位置差不多够用了。</t>
+  </si>
+  <si>
+    <t>030901</t>
+  </si>
+  <si>
+    <t>太空洗澡机</t>
+  </si>
+  <si>
+    <t>排队排队。</t>
+  </si>
+  <si>
+    <t>031001</t>
+  </si>
+  <si>
+    <t>前面的快点。</t>
+  </si>
+  <si>
+    <t>031101</t>
+  </si>
+  <si>
+    <t>来得早不如来得巧。</t>
+  </si>
+  <si>
+    <t>031201</t>
+  </si>
+  <si>
+    <t>请节约用水。</t>
   </si>
 </sst>
 </file>
@@ -264,14 +732,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,22 +762,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -310,37 +778,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,26 +805,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,9 +860,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,14 +877,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,13 +898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +928,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,19 +952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,13 +970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,19 +1036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +1054,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,37 +1072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,39 +1089,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -674,20 +1109,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,6 +1160,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -729,10 +1197,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,133 +1209,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,10 +1703,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1247,15 +1717,18 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1283,429 +1756,1635 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:9">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:1">
+      <c r="G20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="18" customHeight="1"/>
-    <row r="33" ht="18" customHeight="1"/>
-    <row r="34" ht="18" customHeight="1"/>
-    <row r="35" ht="18" customHeight="1"/>
-    <row r="36" ht="18" customHeight="1"/>
+        <v>132</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" ht="18" customHeight="1" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" ht="18" customHeight="1" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" spans="1:11">
+      <c r="A38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" spans="1:11">
+      <c r="A39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" spans="1:11">
+      <c r="A40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="1:11">
+      <c r="A41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" spans="1:11">
+      <c r="A42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="1:11">
+      <c r="A43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" spans="1:11">
+      <c r="A44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="1:11">
+      <c r="A45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" spans="1:11">
+      <c r="A46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:11">
+      <c r="A47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" spans="1:12">
+      <c r="A48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="1:12">
+      <c r="A49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" spans="1:12">
+      <c r="A50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" spans="1:12">
+      <c r="A51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" spans="1:12">
+      <c r="A52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" spans="1:12">
+      <c r="A53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="1:12">
+      <c r="A54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="1:12">
+      <c r="A55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="1:12">
+      <c r="A56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" spans="1:12">
+      <c r="A57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" spans="1:13">
+      <c r="A58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" t="s">
+        <v>210</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" spans="1:13">
+      <c r="A59" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" spans="1:13">
+      <c r="A60" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" spans="1:13">
+      <c r="A61" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" spans="1:13">
+      <c r="A62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" t="s">
+        <v>220</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="1:13">
+      <c r="A63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="1:13">
+      <c r="A64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" t="s">
+        <v>224</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" spans="1:13">
+      <c r="A65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" spans="1:13">
+      <c r="A66" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" t="s">
+        <v>229</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" spans="1:13">
+      <c r="A67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" spans="1:13">
+      <c r="A68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" spans="1:13">
+      <c r="A69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1"/>
+    <row r="71" ht="20" customHeight="1"/>
+    <row r="72" ht="20" customHeight="1"/>
+    <row r="73" ht="20" customHeight="1"/>
+    <row r="74" ht="20" customHeight="1"/>
+    <row r="75" ht="20" customHeight="1"/>
+    <row r="76" ht="20" customHeight="1"/>
+    <row r="77" ht="20" customHeight="1"/>
+    <row r="78" ht="20" customHeight="1"/>
+    <row r="79" ht="20" customHeight="1"/>
+    <row r="80" ht="20" customHeight="1"/>
+    <row r="81" ht="20" customHeight="1"/>
+    <row r="82" ht="20" customHeight="1"/>
+    <row r="83" ht="20" customHeight="1"/>
+    <row r="84" ht="20" customHeight="1"/>
+    <row r="85" ht="20" customHeight="1"/>
+    <row r="86" ht="20" customHeight="1"/>
+    <row r="87" ht="20" customHeight="1"/>
+    <row r="88" ht="20" customHeight="1"/>
+    <row r="89" ht="20" customHeight="1"/>
+    <row r="90" ht="20" customHeight="1"/>
+    <row r="91" ht="20" customHeight="1"/>
+    <row r="92" ht="20" customHeight="1"/>
+    <row r="93" ht="20" customHeight="1"/>
+    <row r="94" ht="20" customHeight="1"/>
+    <row r="95" ht="20" customHeight="1"/>
+    <row r="96" ht="20" customHeight="1"/>
+    <row r="97" ht="20" customHeight="1"/>
+    <row r="98" ht="20" customHeight="1"/>
+    <row r="99" ht="20" customHeight="1"/>
+    <row r="100" ht="20" customHeight="1"/>
+    <row r="101" ht="20" customHeight="1"/>
+    <row r="102" ht="20" customHeight="1"/>
+    <row r="103" ht="20" customHeight="1"/>
+    <row r="104" ht="20" customHeight="1"/>
+    <row r="105" ht="20" customHeight="1"/>
+    <row r="106" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
